--- a/src/assets/sheet/TemplateImportUser.xlsx
+++ b/src/assets/sheet/TemplateImportUser.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NAM_4_2022_2023\KLTN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NAM_4_2022_2023\KLTN\SourceCode\choice-your-calendar\src\assets\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CF802DA-F351-4195-8263-7F24E7523C31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D1CC61-43F5-46E7-B433-4FD187D71448}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{DB09BB2A-C6AE-4D37-846D-DF27B349BEBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Address</t>
   </si>
@@ -85,13 +85,31 @@
   </si>
   <si>
     <t>Ex: anhnv</t>
+  </si>
+  <si>
+    <t>Trần Phan Huy Khánh</t>
+  </si>
+  <si>
+    <t>huykhanh@gmail.com</t>
+  </si>
+  <si>
+    <t>TP. Thủ Đức, TP. Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>huykhanh</t>
+  </si>
+  <si>
+    <t>P@ssword1</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +121,14 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,10 +151,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -136,8 +163,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,15 +479,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC25017-874A-424B-A37F-C0217516A80F}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
@@ -527,8 +556,41 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{DD3EC528-1581-448F-9BDF-1400AF4AEA7B}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{C263CD7D-A1A4-441D-B474-A93DDEFEF7F5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>